--- a/Employee_Excel/Employee_Salary.xlsx
+++ b/Employee_Excel/Employee_Salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ae4885f7a20e84/Documents/UiPath/Natwest_Employee_Salary_Update/Employee_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="13_ncr:11_{0937C2FE-2F74-42D6-8013-B199F6F08305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1C758F-B633-472C-A9DE-CF517B6DE024}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="13_ncr:11_{0937C2FE-2F74-42D6-8013-B199F6F08305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF852D7D-1306-4685-B7BE-A4F80BBAC2BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
